--- a/bug-on-fix/Bug_ StarView.xlsx
+++ b/bug-on-fix/Bug_ StarView.xlsx
@@ -15,12 +15,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bug!$A$10:$H$16</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -215,6 +214,9 @@
 2. Quản lý phòng  --&gt; Danh sách phòng đăng. Chọn trạng thái block
 3. Đăng nhập vào web
 4. Nhấn nút tìm kiếm</t>
+  </si>
+  <si>
+    <t>Fix</t>
   </si>
 </sst>
 </file>
@@ -349,6 +351,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,9 +365,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -893,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +941,7 @@
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -952,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>10</v>
@@ -963,7 +965,7 @@
       <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5" t="s">
         <v>14</v>
@@ -972,7 +974,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>10</v>
@@ -983,7 +985,7 @@
       <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
@@ -994,7 +996,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>10</v>
@@ -1005,7 +1007,7 @@
       <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="7"/>
       <c r="D14" s="5" t="s">
         <v>19</v>
@@ -1014,7 +1016,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>10</v>
@@ -1025,7 +1027,7 @@
       <c r="A15" s="1">
         <v>5</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1036,7 +1038,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>10</v>
@@ -1047,7 +1049,7 @@
       <c r="A16" s="1">
         <v>6</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="7"/>
       <c r="D16" s="5" t="s">
         <v>24</v>
@@ -1056,7 +1058,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>10</v>
@@ -1067,7 +1069,7 @@
       <c r="A17" s="1">
         <v>7</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="1"/>
@@ -1078,7 +1080,7 @@
         <v>27</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>10</v>
@@ -1089,7 +1091,7 @@
       <c r="A18" s="1">
         <v>8</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1100,7 +1102,7 @@
         <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>10</v>
@@ -1111,7 +1113,7 @@
       <c r="A19" s="1">
         <v>9</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1133,7 +1135,7 @@
       <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
@@ -1144,7 +1146,7 @@
         <v>38</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>10</v>
@@ -1155,7 +1157,7 @@
       <c r="A21" s="1">
         <v>11</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1179,7 +1181,7 @@
       <c r="A22" s="1">
         <v>12</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="4"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3" t="s">
@@ -1197,8 +1199,8 @@
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -1479,368 +1481,368 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="15"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="15"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="15"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="15"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="15"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="15"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="15"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="15"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="15"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="15"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="15"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="15"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="15"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="15"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="15"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="15"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="15"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="15"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="15"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="15"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="15"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="15"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+      <c r="A53" s="15"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+      <c r="A54" s="15"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
+      <c r="A55" s="15"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="15"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="15"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
+      <c r="A64" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="15"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+      <c r="A66" s="15"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
+      <c r="A68" s="15"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
+      <c r="A69" s="15"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
+      <c r="A70" s="15"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
+      <c r="A71" s="15"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
+      <c r="A72" s="15"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+      <c r="A73" s="15"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+      <c r="A74" s="15"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+      <c r="A75" s="15"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
+      <c r="A76" s="15"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="15"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
+      <c r="A78" s="15"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+      <c r="A79" s="15"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="A80" s="15"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+      <c r="A82" s="15"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+      <c r="A83" s="15"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
+      <c r="A84" s="15"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
+      <c r="A85" s="15"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+      <c r="A86" s="15"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
+      <c r="A87" s="15"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="14">
+      <c r="A93" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
+      <c r="A94" s="15"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
+      <c r="A95" s="15"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
+      <c r="A96" s="15"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+      <c r="A97" s="15"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
+      <c r="A98" s="15"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
+      <c r="A99" s="15"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
+      <c r="A100" s="15"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
+      <c r="A101" s="15"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
+      <c r="A102" s="15"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
+      <c r="A103" s="15"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
+      <c r="A104" s="15"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
+      <c r="A105" s="15"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
+      <c r="A106" s="15"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
+      <c r="A107" s="15"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
+      <c r="A108" s="15"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
+      <c r="A109" s="15"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
+      <c r="A110" s="15"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
+      <c r="A111" s="15"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
+      <c r="A112" s="15"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+      <c r="A113" s="15"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
+      <c r="A114" s="15"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
+      <c r="A115" s="15"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
+      <c r="A116" s="15"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="14">
+      <c r="A123" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
+      <c r="A124" s="15"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
+      <c r="A125" s="15"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
+      <c r="A126" s="15"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
+      <c r="A127" s="15"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
+      <c r="A128" s="15"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
+      <c r="A129" s="15"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
+      <c r="A130" s="15"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
+      <c r="A131" s="15"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
+      <c r="A132" s="15"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
+      <c r="A133" s="15"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="14"/>
+      <c r="A134" s="15"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
+      <c r="A135" s="15"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14"/>
+      <c r="A136" s="15"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
+      <c r="A137" s="15"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
+      <c r="A138" s="15"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
+      <c r="A139" s="15"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
+      <c r="A140" s="15"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
+      <c r="A141" s="15"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
+      <c r="A142" s="15"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
+      <c r="A143" s="15"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="14"/>
+      <c r="A144" s="15"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
+      <c r="A145" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
